--- a/content/plataformes/dadesref/entitats/Municipis_Catalunya_Geo.xlsx
+++ b/content/plataformes/dadesref/entitats/Municipis_Catalunya_Geo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\___Municipis_Catalunya_Geo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7A1D5456-B558-4A6E-87B2-2598A941989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217B5804-FF4A-4B47-9783-C8EAB44776F6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7A1D5456-B558-4A6E-87B2-2598A941989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B61BD2-C32A-45A3-9D3F-B85AACB0C7CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,7 +1373,7 @@
     <t>430271</t>
   </si>
   <si>
-    <t>Bisbal de Falset, la</t>
+    <t>Bisbal de Montsant, la</t>
   </si>
   <si>
     <t>POINT (0.723326471 41.28022562)</t>
@@ -9859,8 +9859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E96683-9922-480B-BC16-C901DEA7BAD5}">
   <dimension ref="A1:I952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L436" sqref="L436"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N140" sqref="N140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -37453,12 +37453,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37679,17 +37680,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EEDD266-D806-4CE6-BF42-D7CA26B972B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7EB5C2-3DAE-4192-BD5F-B95CD458096E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37697,5 +37697,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7EB5C2-3DAE-4192-BD5F-B95CD458096E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EEDD266-D806-4CE6-BF42-D7CA26B972B7}"/>
 </file>